--- a/biology/Botanique/Beilschmiedia_obscura/Beilschmiedia_obscura.xlsx
+++ b/biology/Botanique/Beilschmiedia_obscura/Beilschmiedia_obscura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beilschmiedia obscura (Stapf) Engl. ex A. Chev. est une espèce d'arbres de la famille des Lauraceae et du genre Beilschmiedia, que l'on rencontre dans les forêts du Cameroun et du Gabon.
 </t>
